--- a/Dataset/Folds/Fold_5/Excel/109.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="306">
   <si>
     <t>Doi</t>
   </si>
@@ -936,6 +936,112 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                            Iraj%Sedighi%NULL%1,                            Zohreh%Shalchi%NULL%1,                            Ghazal%Sami%NULL%1,                            Borhan%Moradveisi%NULL%1,                            Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                             Junhua%Li%m13797631535@163.com%1,                             Ning%Zou%xdzning0215@163.com%1,                             Wenhe%Guan%guanwenhe@126.com%1,                             Jiali%Pan%cmu107819@163.com%1,                             Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                             Jian%Wang%NULL%0,                             Rui%Huang%NULL%1,                             Longgen%Liu%NULL%1,                             Haiyan%Zhao%NULL%1,                             Chao%Wu%dr.wu@nju.edu.cn%0,                             Chuanwu%Zhu%zhuchw@126.com%2,                             Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                             Zongbiao%Song%NULL%1,                             Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                             Jianghui%Cao%NULL%1,                             Xiaolong%Zhang%NULL%1,                             Guangzhi%Liu%NULL%1,                             Xiaxia%Wu%NULL%1,                             Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                             H.%Wen%NULL%1,                             D.%Rong%NULL%1,                             Z.%Zhou%NULL%1,                             H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                             Dan%Xu%NULL%0,                             Dan%Xu%NULL%0,                             Chen%Xia%NULL%2,                             Chen%Xia%NULL%0,                             Shaokang%Wang%NULL%2,                             Shaokang%Wang%NULL%0,                             Minhua%Yu%NULL%2,                             Minhua%Yu%NULL%0,                             Haibo%Xu%NULL%0,                             Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                             Iraj%Sedighi%NULL%1,                             Zohreh%Shalchi%NULL%1,                             Ghazal%Sami%NULL%1,                             Borhan%Moradveisi%NULL%1,                             Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                              Junhua%Li%m13797631535@163.com%1,                              Ning%Zou%xdzning0215@163.com%1,                              Wenhe%Guan%guanwenhe@126.com%1,                              Jiali%Pan%cmu107819@163.com%1,                              Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                              Jian%Wang%NULL%0,                              Rui%Huang%NULL%1,                              Longgen%Liu%NULL%1,                              Haiyan%Zhao%NULL%1,                              Chao%Wu%dr.wu@nju.edu.cn%0,                              Chuanwu%Zhu%zhuchw@126.com%2,                              Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                              Zongbiao%Song%NULL%1,                              Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                              Jianghui%Cao%NULL%1,                              Xiaolong%Zhang%NULL%1,                              Guangzhi%Liu%NULL%1,                              Xiaxia%Wu%NULL%1,                              Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                              H.%Wen%NULL%1,                              D.%Rong%NULL%1,                              Z.%Zhou%NULL%1,                              H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                              Dan%Xu%NULL%0,                              Dan%Xu%NULL%0,                              Chen%Xia%NULL%2,                              Chen%Xia%NULL%0,                              Shaokang%Wang%NULL%2,                              Shaokang%Wang%NULL%0,                              Minhua%Yu%NULL%2,                              Minhua%Yu%NULL%0,                              Haibo%Xu%NULL%0,                              Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                              Iraj%Sedighi%NULL%1,                              Zohreh%Shalchi%NULL%1,                              Ghazal%Sami%NULL%1,                              Borhan%Moradveisi%NULL%1,                              Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 in children of Xiangyang city is often family acquired and not serious, with favorable outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%0, Junhua%Li%m13797631535@163.com%0, Ning%Zou%xdzning0215@163.com%1, Wenhe%Guan%guanwenhe@126.com%1, Jiali%Pan%cmu107819@163.com%1, Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We reported the clinical characteristics of a case series of 10 patients with coronavirus disease 2019 (COVID‐19) aged from 1 year to 18 years.
+ Seven patients had contact with confirmed COVID‐19 family members before onset.
+ Fever (4 [40.0%]) and cough (3 [30.0%]) were the most common symptoms.
+ No patient showed leucopenia and lymphopenia on admission.
+ Pneumonia was observed in chest CT images in 5 (50.0%) patients.
+ Five (50.0%) patients received antiviral treatment.
+ No patient had severe complications or developed a severe illness in our study.
+ Our study indicated that COVID‐19 children present less severe symptoms and have better outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%0, Jian%Wang%NULL%0, Rui%Huang%NULL%0, Longgen%Liu%NULL%0, Haiyan%Zhao%NULL%0, Chao%Wu%dr.wu@nju.edu.cn%0, Chuanwu%Zhu%zhuchw@126.com%0, Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We present clinical and chest computed tomography (CT) features of 5 cases of pediatric patients with 2019 novel coronavirus.
+ Two patients had fever and dry cough, whereas the rest of 3 patients were asymptomatic.
+ Three patients had unilateral ground glass opacities with or without consolidation in the subpleural region on high-resolution chest CT, 1 patient had bilateral ground glass opacities, and 1 patient was negative for CT.
+ We note that up to 66.7% asymptomatic patients had pulmonary lesions, so the asymptomatic children with Wuhan contact are recommended to do a 2019 novel coronavirus real-time fluorescence polymerase chain reaction screening.
+ Unlike adult patients, only a small amount of patients had multilobes affected, so we speculate that the pediatric patients generally have milder CT findings than adults.
+</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%0, Zongbiao%Song%NULL%1, Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%0, H.%Wen%NULL%1, D.%Rong%NULL%1, Z.%Zhou%NULL%1, H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Royal College of Radiologists. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%0, Dan%Xu%NULL%0, Dan%Xu%NULL%0, Chen%Xia%NULL%2, Chen%Xia%NULL%0, Shaokang%Wang%NULL%2, Shaokang%Wang%NULL%0, Minhua%Yu%NULL%2, Minhua%Yu%NULL%0, Haibo%Xu%NULL%0, Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Korean Society of Radiology</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%0, Iraj%Sedighi%NULL%1, Zohreh%Shalchi%NULL%1, Ghazal%Sami%NULL%1, Borhan%Moradveisi%NULL%1, Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Kare Publishing</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1375,10 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1284,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
@@ -1301,10 +1407,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1316,10 +1422,10 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -1333,10 +1439,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1348,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
@@ -1365,10 +1471,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1380,10 +1486,10 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
@@ -1394,28 +1500,28 @@
         <v>43952.0</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1432,7 +1538,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1444,10 +1550,10 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -1464,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1476,10 +1582,10 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1602,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1508,10 +1614,10 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
